--- a/biology/Histoire de la zoologie et de la botanique/Alfred_Merle_Norman/Alfred_Merle_Norman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfred_Merle_Norman/Alfred_Merle_Norman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Merle Norman est un zoologiste britannique, né le 29 août 1831 à Exeter et mort le 26 octobre 1918 (à 87 ans) à Berkhamsted.
 Il est le fils de John Norman[réf. nécessaire]. Il fait ses études à la Christ Church d’Oxford. Il obtient un Master of Arts, un Doctorat of Laws et un Doctorat of Civil Laws. Il est recteur à Houghton-le-Spring. Récompensé par l’Institut de France, il est membre de la Royal Society (élu le 5 juin 1890) et de la Société linnéenne de Londres dont il reçoit la médaille d’or en 1906.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p. </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>R.A. Baker (1991). The Durham connection in the history of arachnology in Britain (1850-1950), Archives of Natural History, 18 : 221-230.  (ISSN 0260-9541)</t>
         </is>
